--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T12:26:15+00:00</t>
+    <t>2024-07-22T12:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T12:50:44+00:00</t>
+    <t>2024-07-22T13:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T13:02:51+00:00</t>
+    <t>2024-07-22T14:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T14:37:38+00:00</t>
+    <t>2024-08-29T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T16:05:10+00:00</t>
+    <t>2024-08-30T08:51:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-30T08:51:03+00:00</t>
+    <t>2024-09-18T14:38:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:38:31+00:00</t>
+    <t>2024-09-18T14:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:39:12+00:00</t>
+    <t>2024-09-18T14:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:39:51+00:00</t>
+    <t>2024-09-18T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:41:10+00:00</t>
+    <t>2024-09-18T15:26:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:16+00:00</t>
+    <t>2024-09-18T15:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:41+00:00</t>
+    <t>2024-09-18T15:26:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:56+00:00</t>
+    <t>2024-09-19T10:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T10:05:54+00:00</t>
+    <t>2024-09-19T10:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T10:11:41+00:00</t>
+    <t>2024-09-19T12:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:57:53+00:00</t>
+    <t>2024-09-19T13:35:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
